--- a/ConstituentiBet.xlsx
+++ b/ConstituentiBet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Simbol</t>
   </si>
@@ -58,6 +58,12 @@
     <t>Pret mediu</t>
   </si>
   <si>
+    <t>Max. 52 saptamani</t>
+  </si>
+  <si>
+    <t>Min. 52 saptamani</t>
+  </si>
+  <si>
     <t>TLV</t>
   </si>
   <si>
@@ -100,12 +106,12 @@
     <t>TTS</t>
   </si>
   <si>
+    <t>AQ</t>
+  </si>
+  <si>
     <t>TRP</t>
   </si>
   <si>
-    <t>AQ</t>
-  </si>
-  <si>
     <t>SFG</t>
   </si>
   <si>
@@ -160,12 +166,12 @@
     <t>TTS (TRANSPORT TRADE SERVICES)</t>
   </si>
   <si>
+    <t>AQUILA PART PROD COM</t>
+  </si>
+  <si>
     <t>TERAPLAST SA</t>
   </si>
   <si>
-    <t>AQUILA PART PROD COM</t>
-  </si>
-  <si>
     <t>Sphera Franchise Group</t>
   </si>
   <si>
@@ -220,12 +226,12 @@
     <t>60.000.000</t>
   </si>
   <si>
+    <t>1.200.002.400</t>
+  </si>
+  <si>
     <t>2.179.000.358</t>
   </si>
   <si>
-    <t>1.200.002.400</t>
-  </si>
-  <si>
     <t>38.799.340</t>
   </si>
   <si>
@@ -242,6 +248,12 @@
   </si>
   <si>
     <t>DETALII CONSTITUENTI / ZI</t>
+  </si>
+  <si>
+    <t>MAXIME</t>
+  </si>
+  <si>
+    <t>PRET BET</t>
   </si>
 </sst>
 </file>
@@ -311,13 +323,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -614,981 +627,1126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="13" width="9.140625" style="1"/>
+    <col min="4" max="10" width="9.140625" style="2"/>
+    <col min="11" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="P3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1">
-        <v>32.15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.622</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>21.54</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-0.15</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-0.47</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>21.46</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-0.78</v>
+      </c>
+      <c r="K4">
         <v>32.2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>32.2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>31.9</v>
       </c>
       <c r="N4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="O4">
+        <v>33.45</v>
+      </c>
+      <c r="P4">
+        <v>16.933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="1">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.3</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>18.91</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19.24</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.01</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>1.33</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>0.76</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>0.777</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>0.757</v>
       </c>
       <c r="N5">
-        <v>0.762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>16</v>
+        <v>0.761</v>
+      </c>
+      <c r="O5">
+        <v>0.777</v>
+      </c>
+      <c r="P5">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2">
+        <v>123.9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-0.08</v>
+      </c>
+      <c r="K6">
         <v>124</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15.05</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-0.08</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="L6">
         <v>124</v>
       </c>
-      <c r="L6" s="1">
-        <v>124</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>123.7</v>
       </c>
       <c r="N6">
         <v>123.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>17</v>
+      <c r="O6">
+        <v>137.3</v>
+      </c>
+      <c r="P6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="1">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.72</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="K7">
+        <v>5.75</v>
+      </c>
+      <c r="L7">
         <v>5.76</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8.98</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-0.35</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5.75</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5.76</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>5.62</v>
       </c>
       <c r="N7">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>18</v>
+        <v>5.71</v>
+      </c>
+      <c r="O7">
+        <v>6.38</v>
+      </c>
+      <c r="P7">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.4</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-0.32</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-1.6</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.36</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="K8">
         <v>19.96</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>19.96</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
+        <v>19.38</v>
+      </c>
+      <c r="N8">
         <v>19.52</v>
       </c>
-      <c r="N8">
-        <v>19.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>19</v>
+      <c r="O8">
+        <v>22</v>
+      </c>
+      <c r="P8">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45.4</v>
-      </c>
-      <c r="E9" s="1">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44.45</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.2</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3.69</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-0.55</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-1.21</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-0.95</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-2.09</v>
+      </c>
+      <c r="K9">
         <v>45.5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>45.5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
+        <v>44.2</v>
+      </c>
+      <c r="N9">
         <v>44.8</v>
       </c>
-      <c r="N9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="O9">
+        <v>52.4</v>
+      </c>
+      <c r="P9">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1">
-        <v>66.8</v>
-      </c>
-      <c r="E10" s="1">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2">
+        <v>66.2</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.4</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="K10">
         <v>67</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>67</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>65.8</v>
       </c>
       <c r="N10">
         <v>66.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="O10">
+        <v>69.8</v>
+      </c>
+      <c r="P10">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.5</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K11">
+        <v>15.02</v>
+      </c>
+      <c r="L11">
+        <v>15.08</v>
+      </c>
+      <c r="M11">
+        <v>14.7</v>
+      </c>
+      <c r="N11">
+        <v>14.86</v>
+      </c>
+      <c r="O11">
+        <v>15.08</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>15.02</v>
-      </c>
-      <c r="L11" s="1">
-        <v>15.08</v>
-      </c>
-      <c r="M11" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="N11">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="K12">
         <v>24.2</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="K12" s="1">
-        <v>24.2</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>24.4</v>
       </c>
-      <c r="M12" s="1">
-        <v>24.2</v>
+      <c r="M12">
+        <v>24</v>
       </c>
       <c r="N12">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>23</v>
+        <v>24.25</v>
+      </c>
+      <c r="O12">
+        <v>24.4</v>
+      </c>
+      <c r="P12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="1">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2">
         <v>5.67</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.7</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>5.69</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>5.69</v>
       </c>
-      <c r="M13" s="1">
-        <v>5.67</v>
+      <c r="M13">
+        <v>5.56</v>
       </c>
       <c r="N13">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>24</v>
+        <v>5.65</v>
+      </c>
+      <c r="O13">
+        <v>5.69</v>
+      </c>
+      <c r="P13">
+        <v>3.825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="1">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.417</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-0.001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-0.24</v>
+      </c>
+      <c r="K14">
         <v>0.418</v>
       </c>
-      <c r="E14" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-0.001</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-0.24</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.418</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>0.419</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>0.416</v>
       </c>
       <c r="N14">
         <v>0.417</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>25</v>
+      <c r="O14">
+        <v>2.02</v>
+      </c>
+      <c r="P14">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.892</v>
-      </c>
-      <c r="E15" s="1">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.4</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.83</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-0.003</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-0.34</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-0.012</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-1.35</v>
+      </c>
+      <c r="K15">
         <v>0.893</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>0.894</v>
       </c>
-      <c r="M15" s="1">
-        <v>0.887</v>
+      <c r="M15">
+        <v>0.869</v>
       </c>
       <c r="N15">
-        <v>0.888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>26</v>
+        <v>0.877</v>
+      </c>
+      <c r="O15">
+        <v>1.06</v>
+      </c>
+      <c r="P15">
+        <v>0.848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1">
-        <v>39.6</v>
-      </c>
-      <c r="E16" s="1">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40.2</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.4</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.57</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="K16">
         <v>39.95</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>40.9</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>39.55</v>
       </c>
       <c r="N16">
         <v>40.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>27</v>
+      <c r="O16">
+        <v>41.7</v>
+      </c>
+      <c r="P16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1">
-        <v>25.3</v>
-      </c>
-      <c r="E17" s="1">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2">
+        <v>24.75</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.7</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="I17" s="2">
         <v>-0.55</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>-2.17</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>24.9</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>25.25</v>
       </c>
-      <c r="M17" s="1">
-        <v>24.75</v>
+      <c r="M17">
+        <v>24.65</v>
       </c>
       <c r="N17">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>28</v>
+        <v>24.8</v>
+      </c>
+      <c r="O17">
+        <v>30.1</v>
+      </c>
+      <c r="P17">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E18" s="1">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.225</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.015</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="K18">
+        <v>1.21</v>
+      </c>
+      <c r="L18">
+        <v>1.225</v>
+      </c>
+      <c r="M18">
+        <v>1.195</v>
+      </c>
+      <c r="N18">
+        <v>1.21</v>
+      </c>
+      <c r="O18">
+        <v>1.26</v>
+      </c>
+      <c r="P18">
+        <v>0.668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.555</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.6</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-0.001</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-0.18</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-0.012</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-2.12</v>
+      </c>
+      <c r="K19">
         <v>0.569</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L19">
         <v>0.571</v>
       </c>
-      <c r="M18" s="1">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.5679999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I19" s="1">
-        <v>-0.015</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1.195</v>
+      <c r="M19">
+        <v>0.553</v>
       </c>
       <c r="N19">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>30</v>
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.62</v>
+      </c>
+      <c r="P19">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="1">
-        <v>38.3</v>
-      </c>
-      <c r="E20" s="1">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>38.2</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.4</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
         <v>0.8</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="I20" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="K20">
         <v>38.5</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>38.5</v>
       </c>
-      <c r="M20" s="1">
-        <v>38.2</v>
+      <c r="M20">
+        <v>38.1</v>
       </c>
       <c r="N20">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>31</v>
+      <c r="O20">
+        <v>39.8</v>
+      </c>
+      <c r="P20">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="1">
-        <v>63.5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="K21" s="1">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="K21">
         <v>63.7</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>64.3</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>63.7</v>
       </c>
       <c r="N21">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>32</v>
+      <c r="O21">
+        <v>73</v>
+      </c>
+      <c r="P21">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="1">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="K22">
         <v>15.4</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="L22">
         <v>15.4</v>
       </c>
-      <c r="L22" s="1">
-        <v>15.4</v>
-      </c>
-      <c r="M22" s="1">
-        <v>15.3</v>
+      <c r="M22">
+        <v>15</v>
       </c>
       <c r="N22">
-        <v>15.32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>33</v>
+        <v>15.16</v>
+      </c>
+      <c r="O22">
+        <v>15.76</v>
+      </c>
+      <c r="P22">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="E23" s="1">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2">
+        <v>86</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.4</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
         <v>0.4</v>
       </c>
-      <c r="I23" s="1">
-        <v>-0.2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-0.23</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="I23" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="K23">
         <v>85.8</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>86</v>
       </c>
-      <c r="M23" s="1">
-        <v>85</v>
+      <c r="M23">
+        <v>84</v>
       </c>
       <c r="N23">
-        <v>85.8</v>
+        <v>85.40000000000001</v>
+      </c>
+      <c r="O23">
+        <v>91.8</v>
+      </c>
+      <c r="P23">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25">
+        <v>17945.67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ConstituentiBet.xlsx
+++ b/ConstituentiBet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Simbol</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Pondere (%)</t>
   </si>
   <si>
+    <t>Ultimul pret</t>
+  </si>
+  <si>
     <t>Var</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>Min. 52 saptamani</t>
   </si>
   <si>
+    <t>Grafic</t>
+  </si>
+  <si>
     <t>TLV</t>
   </si>
   <si>
@@ -242,6 +248,66 @@
   </si>
   <si>
     <t>8.657.528</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATLV</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASNP</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AH2O</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASNG</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ABRD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASNN</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ADIGI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AEL</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATGN</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AM</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AFP</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AONE</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATEL</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATTS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AAQ</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATRP</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASFG</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ABVB</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AWINE</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ACOTE</t>
   </si>
   <si>
     <t>BET® (BUCHAREST EXCHANGE TRADING)</t>
@@ -263,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +349,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,10 +407,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -333,8 +424,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,13 +731,12 @@
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="2"/>
-    <col min="11" max="16" width="10.7109375" customWidth="1"/>
+    <col min="4" max="17" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -652,19 +746,20 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -681,8 +776,9 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -731,19 +827,25 @@
       <c r="P3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2">
-        <v>31.9</v>
+        <v>31.95</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -755,45 +857,51 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>21.46</v>
+        <v>21.38</v>
       </c>
       <c r="I4" s="2">
-        <v>-0.25</v>
+        <v>32.05</v>
       </c>
       <c r="J4" s="2">
-        <v>-0.78</v>
-      </c>
-      <c r="K4">
-        <v>32.2</v>
-      </c>
-      <c r="L4">
-        <v>32.2</v>
-      </c>
-      <c r="M4">
-        <v>31.9</v>
-      </c>
-      <c r="N4">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="L4" s="2">
         <v>32</v>
       </c>
-      <c r="O4">
+      <c r="M4" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>31.95</v>
+      </c>
+      <c r="O4" s="2">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2">
         <v>33.45</v>
       </c>
-      <c r="P4">
+      <c r="Q4" s="2">
         <v>16.933</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="R4" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="E5" s="2">
         <v>0.3</v>
@@ -805,45 +913,51 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>19.24</v>
+        <v>19.2</v>
       </c>
       <c r="I5" s="2">
-        <v>0.01</v>
+        <v>0.774</v>
       </c>
       <c r="J5" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="K5">
-        <v>0.76</v>
-      </c>
-      <c r="L5">
+        <v>0.012</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.769</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.776</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.769</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.773</v>
+      </c>
+      <c r="P5" s="2">
         <v>0.777</v>
       </c>
-      <c r="M5">
-        <v>0.757</v>
-      </c>
-      <c r="N5">
-        <v>0.761</v>
-      </c>
-      <c r="O5">
-        <v>0.777</v>
-      </c>
-      <c r="P5">
+      <c r="Q5" s="2">
         <v>0.484</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="R5" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>123.9</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2">
         <v>0.2</v>
@@ -855,45 +969,51 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>15.1</v>
+        <v>14.91</v>
       </c>
       <c r="I6" s="2">
-        <v>-0.1</v>
+        <v>123.8</v>
       </c>
       <c r="J6" s="2">
-        <v>-0.08</v>
-      </c>
-      <c r="K6">
-        <v>124</v>
-      </c>
-      <c r="L6">
-        <v>124</v>
-      </c>
-      <c r="M6">
-        <v>123.7</v>
-      </c>
-      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="L6" s="2">
         <v>123.9</v>
       </c>
-      <c r="O6">
+      <c r="M6" s="2">
+        <v>123.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>123.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>123.8</v>
+      </c>
+      <c r="P6" s="2">
         <v>137.3</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
-        <v>5.72</v>
+        <v>5.79</v>
       </c>
       <c r="E7" s="2">
         <v>0.3</v>
@@ -905,45 +1025,51 @@
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>8.960000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="I7" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="J7" s="2">
         <v>-0.04</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="7">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="2">
+        <v>5.78</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5.79</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5.72</v>
+      </c>
+      <c r="O7" s="2">
         <v>5.75</v>
       </c>
-      <c r="L7">
-        <v>5.76</v>
-      </c>
-      <c r="M7">
-        <v>5.62</v>
-      </c>
-      <c r="N7">
-        <v>5.71</v>
-      </c>
-      <c r="O7">
+      <c r="P7" s="2">
         <v>6.38</v>
       </c>
-      <c r="P7">
+      <c r="Q7" s="2">
         <v>3.835</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2">
-        <v>19.5</v>
+        <v>19.98</v>
       </c>
       <c r="E8" s="2">
         <v>0.4</v>
@@ -955,45 +1081,51 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="I8" s="2">
-        <v>-0.5</v>
+        <v>20.05</v>
       </c>
       <c r="J8" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="K8">
-        <v>19.96</v>
-      </c>
-      <c r="L8">
-        <v>19.96</v>
-      </c>
-      <c r="M8">
-        <v>19.38</v>
-      </c>
-      <c r="N8">
-        <v>19.52</v>
-      </c>
-      <c r="O8">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="L8" s="2">
+        <v>19.98</v>
+      </c>
+      <c r="M8" s="2">
+        <v>20.1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>19.9</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
         <v>22</v>
       </c>
-      <c r="P8">
+      <c r="Q8" s="2">
         <v>12.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="R8" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2">
-        <v>44.45</v>
+        <v>45.05</v>
       </c>
       <c r="E9" s="2">
         <v>0.2</v>
@@ -1005,45 +1137,51 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="I9" s="2">
-        <v>-0.95</v>
+        <v>45.3</v>
       </c>
       <c r="J9" s="2">
-        <v>-2.09</v>
-      </c>
-      <c r="K9">
-        <v>45.5</v>
-      </c>
-      <c r="L9">
-        <v>45.5</v>
-      </c>
-      <c r="M9">
-        <v>44.2</v>
-      </c>
-      <c r="N9">
-        <v>44.8</v>
-      </c>
-      <c r="O9">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="2">
+        <v>45.05</v>
+      </c>
+      <c r="M9" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>45.05</v>
+      </c>
+      <c r="O9" s="2">
+        <v>45.2</v>
+      </c>
+      <c r="P9" s="2">
         <v>52.4</v>
       </c>
-      <c r="P9">
+      <c r="Q9" s="2">
         <v>42.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="R9" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2">
-        <v>66.2</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2">
         <v>0.4</v>
@@ -1055,45 +1193,51 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="I10" s="2">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="J10" s="2">
         <v>-0.6</v>
       </c>
-      <c r="J10" s="2">
-        <v>-0.9</v>
-      </c>
-      <c r="K10">
-        <v>67</v>
-      </c>
-      <c r="L10">
-        <v>67</v>
-      </c>
-      <c r="M10">
+      <c r="K10" s="7">
+        <v>-0.91</v>
+      </c>
+      <c r="L10" s="2">
         <v>65.8</v>
       </c>
-      <c r="N10">
-        <v>66.2</v>
-      </c>
-      <c r="O10">
+      <c r="M10" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="N10" s="2">
+        <v>65.2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="P10" s="2">
         <v>69.8</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="2">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="R10" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E11" s="2">
         <v>0.5</v>
@@ -1105,45 +1249,51 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="I11" s="2">
-        <v>-0.3</v>
+        <v>14.78</v>
       </c>
       <c r="J11" s="2">
-        <v>-2</v>
-      </c>
-      <c r="K11">
-        <v>15.02</v>
-      </c>
-      <c r="L11">
+        <v>-0.12</v>
+      </c>
+      <c r="K11" s="7">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="M11" s="2">
+        <v>14.96</v>
+      </c>
+      <c r="N11" s="2">
+        <v>14.78</v>
+      </c>
+      <c r="O11" s="2">
+        <v>14.86</v>
+      </c>
+      <c r="P11" s="2">
         <v>15.08</v>
       </c>
-      <c r="M11">
-        <v>14.7</v>
-      </c>
-      <c r="N11">
-        <v>14.86</v>
-      </c>
-      <c r="O11">
-        <v>15.08</v>
-      </c>
-      <c r="P11">
+      <c r="Q11" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="R11" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E12" s="2">
         <v>0.5</v>
@@ -1155,45 +1305,51 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>23.85</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>24.2</v>
-      </c>
-      <c r="L12">
+        <v>-0.25</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-1.04</v>
+      </c>
+      <c r="L12" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>23.85</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23.95</v>
+      </c>
+      <c r="P12" s="2">
         <v>24.4</v>
       </c>
-      <c r="M12">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>24.25</v>
-      </c>
-      <c r="O12">
-        <v>24.4</v>
-      </c>
-      <c r="P12">
+      <c r="Q12" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="R12" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2">
-        <v>5.67</v>
+        <v>5.88</v>
       </c>
       <c r="E13" s="2">
         <v>0.7</v>
@@ -1205,45 +1361,51 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>5.69</v>
-      </c>
-      <c r="L13">
-        <v>5.69</v>
-      </c>
-      <c r="M13">
-        <v>5.56</v>
-      </c>
-      <c r="N13">
-        <v>5.65</v>
-      </c>
-      <c r="O13">
-        <v>5.69</v>
-      </c>
-      <c r="P13">
+        <v>0.16</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5.87</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5.96</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="Q13" s="2">
         <v>3.825</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="R13" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2">
-        <v>0.417</v>
+        <v>0.415</v>
       </c>
       <c r="E14" s="2">
         <v>0.6</v>
@@ -1255,45 +1417,51 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="I14" s="2">
+        <v>0.414</v>
+      </c>
+      <c r="J14" s="2">
         <v>-0.001</v>
       </c>
-      <c r="J14" s="2">
-        <v>-0.24</v>
-      </c>
-      <c r="K14">
-        <v>0.418</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="7">
+        <v>-0.19</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.417</v>
+      </c>
+      <c r="M14" s="2">
         <v>0.419</v>
       </c>
-      <c r="M14">
-        <v>0.416</v>
-      </c>
-      <c r="N14">
-        <v>0.417</v>
-      </c>
-      <c r="O14">
+      <c r="N14" s="2">
+        <v>0.414</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.415</v>
+      </c>
+      <c r="P14" s="2">
         <v>2.02</v>
       </c>
-      <c r="P14">
+      <c r="Q14" s="2">
         <v>0.327</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="R14" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
       <c r="E15" s="2">
         <v>0.4</v>
@@ -1305,45 +1473,51 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I15" s="2">
-        <v>-0.012</v>
+        <v>0.878</v>
       </c>
       <c r="J15" s="2">
-        <v>-1.35</v>
-      </c>
-      <c r="K15">
-        <v>0.893</v>
-      </c>
-      <c r="L15">
-        <v>0.894</v>
-      </c>
-      <c r="M15">
-        <v>0.869</v>
-      </c>
-      <c r="N15">
-        <v>0.877</v>
-      </c>
-      <c r="O15">
+        <v>-0.004</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-0.45</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.882</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="P15" s="2">
         <v>1.06</v>
       </c>
-      <c r="P15">
+      <c r="Q15" s="2">
         <v>0.848</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="R15" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="E16" s="2">
         <v>0.4</v>
@@ -1358,42 +1532,48 @@
         <v>1.6</v>
       </c>
       <c r="I16" s="2">
-        <v>0.6</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="K16">
-        <v>39.95</v>
-      </c>
-      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="L16" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>41</v>
+      </c>
+      <c r="N16" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="O16" s="2">
         <v>40.9</v>
       </c>
-      <c r="M16">
-        <v>39.55</v>
-      </c>
-      <c r="N16">
-        <v>40.2</v>
-      </c>
-      <c r="O16">
+      <c r="P16" s="2">
         <v>41.7</v>
       </c>
-      <c r="P16">
+      <c r="Q16" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="R16" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2">
-        <v>24.75</v>
+        <v>25.6</v>
       </c>
       <c r="E17" s="2">
         <v>0.7</v>
@@ -1405,42 +1585,48 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="I17" s="2">
-        <v>-0.55</v>
+        <v>25.75</v>
       </c>
       <c r="J17" s="2">
-        <v>-2.17</v>
-      </c>
-      <c r="K17">
-        <v>24.9</v>
-      </c>
-      <c r="L17">
-        <v>25.25</v>
-      </c>
-      <c r="M17">
-        <v>24.65</v>
-      </c>
-      <c r="N17">
-        <v>24.8</v>
-      </c>
-      <c r="O17">
+        <v>0.15</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="L17" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="M17" s="2">
+        <v>26</v>
+      </c>
+      <c r="N17" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="O17" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="P17" s="2">
         <v>30.1</v>
       </c>
-      <c r="P17">
+      <c r="Q17" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="R17" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2">
         <v>1.225</v>
@@ -1455,45 +1641,51 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I18" s="2">
-        <v>0.015</v>
+        <v>1.215</v>
       </c>
       <c r="J18" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="K18">
-        <v>1.21</v>
-      </c>
-      <c r="L18">
+        <v>-0.01</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-0.82</v>
+      </c>
+      <c r="L18" s="2">
         <v>1.225</v>
       </c>
-      <c r="M18">
-        <v>1.195</v>
-      </c>
-      <c r="N18">
-        <v>1.21</v>
-      </c>
-      <c r="O18">
+      <c r="M18" s="2">
+        <v>1.225</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.215</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="P18" s="2">
         <v>1.26</v>
       </c>
-      <c r="P18">
+      <c r="Q18" s="2">
         <v>0.668</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="R18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2">
-        <v>0.555</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E19" s="2">
         <v>0.6</v>
@@ -1508,42 +1700,48 @@
         <v>0.98</v>
       </c>
       <c r="I19" s="2">
-        <v>-0.012</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J19" s="2">
-        <v>-2.12</v>
-      </c>
-      <c r="K19">
-        <v>0.569</v>
-      </c>
-      <c r="L19">
-        <v>0.571</v>
-      </c>
-      <c r="M19">
-        <v>0.553</v>
-      </c>
-      <c r="N19">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.556</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.556</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="P19" s="2">
         <v>0.62</v>
       </c>
-      <c r="P19">
+      <c r="Q19" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="R19" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E20" s="2">
         <v>0.4</v>
@@ -1558,39 +1756,45 @@
         <v>0.8</v>
       </c>
       <c r="I20" s="2">
-        <v>-0.1</v>
+        <v>37.8</v>
       </c>
       <c r="J20" s="2">
-        <v>-0.26</v>
-      </c>
-      <c r="K20">
-        <v>38.5</v>
-      </c>
-      <c r="L20">
-        <v>38.5</v>
-      </c>
-      <c r="M20">
-        <v>38.1</v>
-      </c>
-      <c r="N20">
-        <v>38.3</v>
-      </c>
-      <c r="O20">
+        <v>-0.6</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-1.56</v>
+      </c>
+      <c r="L20" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="N20" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>38</v>
+      </c>
+      <c r="P20" s="2">
         <v>39.8</v>
       </c>
-      <c r="P20">
+      <c r="Q20" s="2">
         <v>17.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="R20" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2">
         <v>64</v>
@@ -1605,45 +1809,51 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I21" s="2">
-        <v>0.5</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>63.8</v>
+      </c>
+      <c r="M21" s="2">
+        <v>64</v>
+      </c>
+      <c r="N21" s="2">
         <v>63.7</v>
       </c>
-      <c r="L21">
-        <v>64.3</v>
-      </c>
-      <c r="M21">
-        <v>63.7</v>
-      </c>
-      <c r="N21">
-        <v>64</v>
-      </c>
-      <c r="O21">
+      <c r="O21" s="2">
+        <v>63.9</v>
+      </c>
+      <c r="P21" s="2">
         <v>73</v>
       </c>
-      <c r="P21">
+      <c r="Q21" s="2">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="R21" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2">
-        <v>15</v>
+        <v>15.42</v>
       </c>
       <c r="E22" s="2">
         <v>0.8</v>
@@ -1655,45 +1865,51 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="I22" s="2">
-        <v>-0.4</v>
+        <v>15.4</v>
       </c>
       <c r="J22" s="2">
-        <v>-2.6</v>
-      </c>
-      <c r="K22">
-        <v>15.4</v>
-      </c>
-      <c r="L22">
-        <v>15.4</v>
-      </c>
-      <c r="M22">
-        <v>15</v>
-      </c>
-      <c r="N22">
-        <v>15.16</v>
-      </c>
-      <c r="O22">
+        <v>-0.02</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-0.13</v>
+      </c>
+      <c r="L22" s="2">
+        <v>15.42</v>
+      </c>
+      <c r="M22" s="2">
+        <v>15.42</v>
+      </c>
+      <c r="N22" s="2">
+        <v>15.32</v>
+      </c>
+      <c r="O22" s="2">
+        <v>15.42</v>
+      </c>
+      <c r="P22" s="2">
         <v>15.76</v>
       </c>
-      <c r="P22">
+      <c r="Q22" s="2">
         <v>10.16</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="R22" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="E23" s="2">
         <v>0.4</v>
@@ -1708,46 +1924,74 @@
         <v>0.4</v>
       </c>
       <c r="I23" s="2">
-        <v>0.4</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="J23" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="K23">
+        <v>-0.2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>-0.23</v>
+      </c>
+      <c r="L23" s="2">
         <v>85.8</v>
       </c>
-      <c r="L23">
-        <v>86</v>
-      </c>
-      <c r="M23">
-        <v>84</v>
-      </c>
-      <c r="N23">
+      <c r="M23" s="2">
+        <v>85.8</v>
+      </c>
+      <c r="N23" s="2">
         <v>85.40000000000001</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
+        <v>85.8</v>
+      </c>
+      <c r="P23" s="2">
         <v>91.8</v>
       </c>
-      <c r="P23">
+      <c r="Q23" s="2">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="R23" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25">
-        <v>17945.67</v>
+        <v>18114.39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:N2"/>
-    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="I1:O2"/>
+    <mergeCell ref="P1:Q2"/>
     <mergeCell ref="A25:B25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R4" r:id="rId1"/>
+    <hyperlink ref="R5" r:id="rId2"/>
+    <hyperlink ref="R6" r:id="rId3"/>
+    <hyperlink ref="R7" r:id="rId4"/>
+    <hyperlink ref="R8" r:id="rId5"/>
+    <hyperlink ref="R9" r:id="rId6"/>
+    <hyperlink ref="R10" r:id="rId7"/>
+    <hyperlink ref="R11" r:id="rId8"/>
+    <hyperlink ref="R12" r:id="rId9"/>
+    <hyperlink ref="R13" r:id="rId10"/>
+    <hyperlink ref="R14" r:id="rId11"/>
+    <hyperlink ref="R15" r:id="rId12"/>
+    <hyperlink ref="R16" r:id="rId13"/>
+    <hyperlink ref="R17" r:id="rId14"/>
+    <hyperlink ref="R18" r:id="rId15"/>
+    <hyperlink ref="R19" r:id="rId16"/>
+    <hyperlink ref="R20" r:id="rId17"/>
+    <hyperlink ref="R21" r:id="rId18"/>
+    <hyperlink ref="R22" r:id="rId19"/>
+    <hyperlink ref="R23" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ConstituentiBet.xlsx
+++ b/ConstituentiBet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Simbol</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Min. 52 saptamani</t>
   </si>
   <si>
+    <t>Ultimul Dividend</t>
+  </si>
+  <si>
     <t>Grafic</t>
   </si>
   <si>
@@ -88,18 +91,18 @@
     <t>SNN</t>
   </si>
   <si>
+    <t>EL</t>
+  </si>
+  <si>
     <t>DIGI</t>
   </si>
   <si>
-    <t>EL</t>
+    <t>M</t>
   </si>
   <si>
     <t>TGN</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>FP</t>
   </si>
   <si>
@@ -148,18 +151,18 @@
     <t>S.N. NUCLEARELECTRICA S.A.</t>
   </si>
   <si>
+    <t>SOCIETATEA ENERGETICA ELECTRICA S.A.</t>
+  </si>
+  <si>
     <t>Digi Communications N.V.</t>
   </si>
   <si>
-    <t>SOCIETATEA ENERGETICA ELECTRICA S.A.</t>
+    <t>MedLife S.A.</t>
   </si>
   <si>
     <t>S.N.T.G.N. TRANSGAZ S.A.</t>
   </si>
   <si>
-    <t>MedLife S.A.</t>
-  </si>
-  <si>
     <t>FONDUL PROPRIETATEA</t>
   </si>
   <si>
@@ -208,18 +211,18 @@
     <t>301.643.894</t>
   </si>
   <si>
+    <t>346.443.597</t>
+  </si>
+  <si>
     <t>100.000.000</t>
   </si>
   <si>
-    <t>346.443.597</t>
+    <t>531.481.968</t>
   </si>
   <si>
     <t>188.381.504</t>
   </si>
   <si>
-    <t>531.481.968</t>
-  </si>
-  <si>
     <t>5.668.806.128</t>
   </si>
   <si>
@@ -268,16 +271,16 @@
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASNN</t>
   </si>
   <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AEL</t>
+  </si>
+  <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ADIGI</t>
   </si>
   <si>
-    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AEL</t>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AM</t>
   </si>
   <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATGN</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AM</t>
   </si>
   <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AFP</t>
@@ -722,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,12 +734,12 @@
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="17" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="18" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -746,7 +749,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -755,11 +758,11 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -778,7 +781,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -833,19 +836,22 @@
       <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2">
-        <v>31.95</v>
+        <v>32.15</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -857,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>21.38</v>
+        <v>21.29</v>
       </c>
       <c r="I4" s="2">
-        <v>32.05</v>
+        <v>32.25</v>
       </c>
       <c r="J4" s="2">
         <v>0.1</v>
@@ -869,39 +875,42 @@
         <v>0.31</v>
       </c>
       <c r="L4" s="2">
+        <v>32.15</v>
+      </c>
+      <c r="M4" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="N4" s="2">
         <v>32</v>
       </c>
-      <c r="M4" s="2">
-        <v>32.1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>31.95</v>
-      </c>
       <c r="O4" s="2">
-        <v>32</v>
+        <v>32.15</v>
       </c>
       <c r="P4" s="2">
         <v>33.45</v>
       </c>
       <c r="Q4" s="2">
-        <v>16.933</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>17.066</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.252</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>0.762</v>
+        <v>0.773</v>
       </c>
       <c r="E5" s="2">
         <v>0.3</v>
@@ -913,51 +922,54 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>19.2</v>
+        <v>19.26</v>
       </c>
       <c r="I5" s="2">
+        <v>0.776</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.777</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="N5" s="2">
         <v>0.774</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.012</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1.57</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.769</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>0.776</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.769</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.773</v>
       </c>
       <c r="P5" s="2">
         <v>0.777</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.484</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0.488</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.041</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
-        <v>123</v>
+        <v>122.1</v>
       </c>
       <c r="E6" s="2">
         <v>0.2</v>
@@ -969,28 +981,28 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>14.91</v>
+        <v>14.64</v>
       </c>
       <c r="I6" s="2">
-        <v>123.8</v>
+        <v>123.5</v>
       </c>
       <c r="J6" s="2">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="K6" s="5">
-        <v>0.65</v>
+        <v>1.15</v>
       </c>
       <c r="L6" s="2">
-        <v>123.9</v>
+        <v>123.2</v>
       </c>
       <c r="M6" s="2">
-        <v>123.9</v>
+        <v>123.6</v>
       </c>
       <c r="N6" s="2">
-        <v>123.5</v>
+        <v>123.1</v>
       </c>
       <c r="O6" s="2">
-        <v>123.8</v>
+        <v>123.4</v>
       </c>
       <c r="P6" s="2">
         <v>137.3</v>
@@ -998,22 +1010,25 @@
       <c r="Q6" s="2">
         <v>107</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="R6" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="E7" s="2">
         <v>0.3</v>
@@ -1025,28 +1040,28 @@
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>9.02</v>
+        <v>9.09</v>
       </c>
       <c r="I7" s="2">
-        <v>5.75</v>
+        <v>5.88</v>
       </c>
       <c r="J7" s="2">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="K7" s="7">
-        <v>-0.6899999999999999</v>
+        <v>-0.34</v>
       </c>
       <c r="L7" s="2">
-        <v>5.78</v>
+        <v>5.9</v>
       </c>
       <c r="M7" s="2">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="N7" s="2">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="O7" s="2">
-        <v>5.75</v>
+        <v>5.86</v>
       </c>
       <c r="P7" s="2">
         <v>6.38</v>
@@ -1054,22 +1069,25 @@
       <c r="Q7" s="2">
         <v>3.835</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="2">
+        <v>0.142</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2">
-        <v>19.98</v>
+        <v>20.3</v>
       </c>
       <c r="E8" s="2">
         <v>0.4</v>
@@ -1081,51 +1099,54 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>7.5</v>
+        <v>7.54</v>
       </c>
       <c r="I8" s="2">
-        <v>20.05</v>
+        <v>20.35</v>
       </c>
       <c r="J8" s="2">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="K8" s="5">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="L8" s="2">
-        <v>19.98</v>
+        <v>20.3</v>
       </c>
       <c r="M8" s="2">
-        <v>20.1</v>
+        <v>20.35</v>
       </c>
       <c r="N8" s="2">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>20.25</v>
       </c>
       <c r="P8" s="2">
         <v>22</v>
       </c>
       <c r="Q8" s="2">
-        <v>12.18</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>12.4</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1.173</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
-        <v>45.05</v>
+        <v>45.95</v>
       </c>
       <c r="E9" s="2">
         <v>0.2</v>
@@ -1137,275 +1158,290 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="I9" s="2">
-        <v>45.3</v>
+        <v>45.9</v>
       </c>
       <c r="J9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.55</v>
+        <v>-0.05</v>
+      </c>
+      <c r="K9" s="7">
+        <v>-0.11</v>
       </c>
       <c r="L9" s="2">
-        <v>45.05</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2">
-        <v>45.3</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2">
-        <v>45.05</v>
+        <v>45.8</v>
       </c>
       <c r="O9" s="2">
-        <v>45.2</v>
+        <v>45.95</v>
       </c>
       <c r="P9" s="2">
         <v>52.4</v>
       </c>
       <c r="Q9" s="2">
-        <v>42.7</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>43.2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3.716</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="K10" s="7">
+        <v>-1.43</v>
+      </c>
+      <c r="L10" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="N10" s="2">
+        <v>15.06</v>
+      </c>
+      <c r="O10" s="2">
+        <v>15.28</v>
+      </c>
+      <c r="P10" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>8</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.118</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D11" s="2">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.4</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.56</v>
-      </c>
-      <c r="I10" s="2">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="K10" s="7">
-        <v>-0.91</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="I11" s="2">
+        <v>65.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="K11" s="7">
+        <v>-1.21</v>
+      </c>
+      <c r="L11" s="2">
         <v>65.8</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M11" s="2">
         <v>65.8</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N11" s="2">
+        <v>65</v>
+      </c>
+      <c r="O11" s="2">
         <v>65.2</v>
       </c>
-      <c r="O10" s="2">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="P11" s="2">
         <v>69.8</v>
       </c>
-      <c r="Q10" s="2">
-        <v>32.4</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="Q11" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-0.13</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-2.08</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="M12" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="N12" s="2">
+        <v>6</v>
+      </c>
+      <c r="O12" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.825</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.5</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3.48</v>
-      </c>
-      <c r="I11" s="2">
-        <v>14.78</v>
-      </c>
-      <c r="J11" s="2">
-        <v>-0.12</v>
-      </c>
-      <c r="K11" s="7">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="L11" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="M11" s="2">
-        <v>14.96</v>
-      </c>
-      <c r="N11" s="2">
-        <v>14.78</v>
-      </c>
-      <c r="O11" s="2">
-        <v>14.86</v>
-      </c>
-      <c r="P11" s="2">
-        <v>15.08</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>8</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3.06</v>
-      </c>
-      <c r="I12" s="2">
-        <v>23.85</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="I13" s="2">
+        <v>24.05</v>
+      </c>
+      <c r="J13" s="2">
         <v>-0.25</v>
       </c>
-      <c r="K12" s="7">
-        <v>-1.04</v>
-      </c>
-      <c r="L12" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>23.85</v>
-      </c>
-      <c r="O12" s="2">
-        <v>23.95</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="K13" s="7">
+        <v>-1.03</v>
+      </c>
+      <c r="L13" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24.05</v>
+      </c>
+      <c r="P13" s="2">
         <v>24.4</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q13" s="2">
         <v>16</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5.88</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6.04</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2.72</v>
-      </c>
-      <c r="L13" s="2">
-        <v>5.87</v>
-      </c>
-      <c r="M13" s="2">
-        <v>6.08</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5.81</v>
-      </c>
-      <c r="O13" s="2">
-        <v>5.96</v>
-      </c>
-      <c r="P13" s="2">
-        <v>5.88</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>3.825</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="R13" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2">
-        <v>0.415</v>
+        <v>0.413</v>
       </c>
       <c r="E14" s="2">
         <v>0.6</v>
@@ -1417,28 +1453,28 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I14" s="2">
-        <v>0.414</v>
+        <v>0.41</v>
       </c>
       <c r="J14" s="2">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="K14" s="7">
-        <v>-0.19</v>
+        <v>-0.77</v>
       </c>
       <c r="L14" s="2">
-        <v>0.417</v>
+        <v>0.413</v>
       </c>
       <c r="M14" s="2">
         <v>0.419</v>
       </c>
       <c r="N14" s="2">
-        <v>0.414</v>
+        <v>0.405</v>
       </c>
       <c r="O14" s="2">
-        <v>0.415</v>
+        <v>0.41</v>
       </c>
       <c r="P14" s="2">
         <v>2.02</v>
@@ -1446,22 +1482,25 @@
       <c r="Q14" s="2">
         <v>0.327</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="R14" s="2">
+        <v>1.782</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="E15" s="2">
         <v>0.4</v>
@@ -1476,25 +1515,25 @@
         <v>1.8</v>
       </c>
       <c r="I15" s="2">
-        <v>0.878</v>
+        <v>0.88</v>
       </c>
       <c r="J15" s="2">
-        <v>-0.004</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="K15" s="7">
-        <v>-0.45</v>
+        <v>-1.01</v>
       </c>
       <c r="L15" s="2">
-        <v>0.878</v>
+        <v>0.888</v>
       </c>
       <c r="M15" s="2">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="N15" s="2">
         <v>0.878</v>
       </c>
       <c r="O15" s="2">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
       <c r="P15" s="2">
         <v>1.06</v>
@@ -1502,22 +1541,25 @@
       <c r="Q15" s="2">
         <v>0.848</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="R15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2">
         <v>0.4</v>
@@ -1529,51 +1571,54 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="I16" s="2">
-        <v>41</v>
+        <v>41.9</v>
       </c>
       <c r="J16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1.23</v>
+        <v>-0.1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-0.24</v>
       </c>
       <c r="L16" s="2">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="M16" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N16" s="2">
-        <v>40.5</v>
+        <v>41.65</v>
       </c>
       <c r="O16" s="2">
-        <v>40.9</v>
+        <v>41.95</v>
       </c>
       <c r="P16" s="2">
-        <v>41.7</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="2">
-        <v>24</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>24.2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>0.7</v>
@@ -1585,48 +1630,51 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I17" s="2">
-        <v>25.75</v>
+        <v>25.7</v>
       </c>
       <c r="J17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0.59</v>
+        <v>-0.3</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-1.15</v>
       </c>
       <c r="L17" s="2">
+        <v>25.95</v>
+      </c>
+      <c r="M17" s="2">
+        <v>25.95</v>
+      </c>
+      <c r="N17" s="2">
+        <v>25.55</v>
+      </c>
+      <c r="O17" s="2">
         <v>25.7</v>
-      </c>
-      <c r="M17" s="2">
-        <v>26</v>
-      </c>
-      <c r="N17" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="O17" s="2">
-        <v>25.8</v>
       </c>
       <c r="P17" s="2">
         <v>30.1</v>
       </c>
       <c r="Q17" s="2">
-        <v>14.2</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>14.45</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.14</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2">
         <v>1.225</v>
@@ -1641,16 +1689,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I18" s="2">
-        <v>1.215</v>
+        <v>1.22</v>
       </c>
       <c r="J18" s="2">
-        <v>-0.01</v>
+        <v>-0.005</v>
       </c>
       <c r="K18" s="7">
-        <v>-0.82</v>
+        <v>-0.41</v>
       </c>
       <c r="L18" s="2">
         <v>1.225</v>
@@ -1659,10 +1707,10 @@
         <v>1.225</v>
       </c>
       <c r="N18" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="O18" s="2">
         <v>1.215</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1.22</v>
       </c>
       <c r="P18" s="2">
         <v>1.26</v>
@@ -1670,22 +1718,25 @@
       <c r="Q18" s="2">
         <v>0.668</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="R18" s="2">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2">
-        <v>0.5590000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E19" s="2">
         <v>0.6</v>
@@ -1700,7 +1751,7 @@
         <v>0.98</v>
       </c>
       <c r="I19" s="2">
-        <v>0.5590000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1709,16 +1760,16 @@
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M19" s="2">
-        <v>0.5590000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="N19" s="2">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O19" s="2">
-        <v>0.5580000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="P19" s="2">
         <v>0.62</v>
@@ -1726,22 +1777,25 @@
       <c r="Q19" s="2">
         <v>0.45</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="R19" s="2">
+        <v>0.145</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2">
         <v>0.4</v>
@@ -1753,28 +1807,28 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I20" s="2">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="J20" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-1.56</v>
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.26</v>
       </c>
       <c r="L20" s="2">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="M20" s="2">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="N20" s="2">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="O20" s="2">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="P20" s="2">
         <v>39.8</v>
@@ -1782,22 +1836,25 @@
       <c r="Q20" s="2">
         <v>17.6</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="R20" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1812,48 +1869,51 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I21" s="2">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K21" s="5">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="L21" s="2">
-        <v>63.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="M21" s="2">
-        <v>64</v>
+        <v>64.7</v>
       </c>
       <c r="N21" s="2">
-        <v>63.7</v>
+        <v>64.3</v>
       </c>
       <c r="O21" s="2">
-        <v>63.9</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="P21" s="2">
         <v>73</v>
       </c>
       <c r="Q21" s="2">
-        <v>47.1</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>47.5</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1.555</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2">
-        <v>15.42</v>
+        <v>15.62</v>
       </c>
       <c r="E22" s="2">
         <v>0.8</v>
@@ -1868,48 +1928,51 @@
         <v>0.67</v>
       </c>
       <c r="I22" s="2">
-        <v>15.4</v>
+        <v>15.72</v>
       </c>
       <c r="J22" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-0.13</v>
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.64</v>
       </c>
       <c r="L22" s="2">
-        <v>15.42</v>
+        <v>15.62</v>
       </c>
       <c r="M22" s="2">
-        <v>15.42</v>
+        <v>15.74</v>
       </c>
       <c r="N22" s="2">
-        <v>15.32</v>
+        <v>15.62</v>
       </c>
       <c r="O22" s="2">
-        <v>15.42</v>
+        <v>15.66</v>
       </c>
       <c r="P22" s="2">
         <v>15.76</v>
       </c>
       <c r="Q22" s="2">
-        <v>10.16</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>10.24</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2">
-        <v>85.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E23" s="2">
         <v>0.4</v>
@@ -1924,43 +1987,46 @@
         <v>0.4</v>
       </c>
       <c r="I23" s="2">
-        <v>85.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="K23" s="7">
-        <v>-0.23</v>
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.47</v>
       </c>
       <c r="L23" s="2">
+        <v>86</v>
+      </c>
+      <c r="M23" s="2">
+        <v>86</v>
+      </c>
+      <c r="N23" s="2">
         <v>85.8</v>
       </c>
-      <c r="M23" s="2">
-        <v>85.8</v>
-      </c>
-      <c r="N23" s="2">
-        <v>85.40000000000001</v>
-      </c>
       <c r="O23" s="2">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="P23" s="2">
         <v>91.8</v>
       </c>
       <c r="Q23" s="2">
-        <v>70.2</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>70.8</v>
+      </c>
+      <c r="R23" s="2">
+        <v>6.786</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25">
-        <v>18114.39</v>
+        <v>18245.54</v>
       </c>
     </row>
   </sheetData>
@@ -1971,26 +2037,26 @@
     <mergeCell ref="A25:B25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1"/>
-    <hyperlink ref="R5" r:id="rId2"/>
-    <hyperlink ref="R6" r:id="rId3"/>
-    <hyperlink ref="R7" r:id="rId4"/>
-    <hyperlink ref="R8" r:id="rId5"/>
-    <hyperlink ref="R9" r:id="rId6"/>
-    <hyperlink ref="R10" r:id="rId7"/>
-    <hyperlink ref="R11" r:id="rId8"/>
-    <hyperlink ref="R12" r:id="rId9"/>
-    <hyperlink ref="R13" r:id="rId10"/>
-    <hyperlink ref="R14" r:id="rId11"/>
-    <hyperlink ref="R15" r:id="rId12"/>
-    <hyperlink ref="R16" r:id="rId13"/>
-    <hyperlink ref="R17" r:id="rId14"/>
-    <hyperlink ref="R18" r:id="rId15"/>
-    <hyperlink ref="R19" r:id="rId16"/>
-    <hyperlink ref="R20" r:id="rId17"/>
-    <hyperlink ref="R21" r:id="rId18"/>
-    <hyperlink ref="R22" r:id="rId19"/>
-    <hyperlink ref="R23" r:id="rId20"/>
+    <hyperlink ref="S4" r:id="rId1"/>
+    <hyperlink ref="S5" r:id="rId2"/>
+    <hyperlink ref="S6" r:id="rId3"/>
+    <hyperlink ref="S7" r:id="rId4"/>
+    <hyperlink ref="S8" r:id="rId5"/>
+    <hyperlink ref="S9" r:id="rId6"/>
+    <hyperlink ref="S10" r:id="rId7"/>
+    <hyperlink ref="S11" r:id="rId8"/>
+    <hyperlink ref="S12" r:id="rId9"/>
+    <hyperlink ref="S13" r:id="rId10"/>
+    <hyperlink ref="S14" r:id="rId11"/>
+    <hyperlink ref="S15" r:id="rId12"/>
+    <hyperlink ref="S16" r:id="rId13"/>
+    <hyperlink ref="S17" r:id="rId14"/>
+    <hyperlink ref="S18" r:id="rId15"/>
+    <hyperlink ref="S19" r:id="rId16"/>
+    <hyperlink ref="S20" r:id="rId17"/>
+    <hyperlink ref="S21" r:id="rId18"/>
+    <hyperlink ref="S22" r:id="rId19"/>
+    <hyperlink ref="S23" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ConstituentiBet.xlsx
+++ b/ConstituentiBet.xlsx
@@ -73,12 +73,12 @@
     <t>Grafic</t>
   </si>
   <si>
+    <t>SNP</t>
+  </si>
+  <si>
     <t>TLV</t>
   </si>
   <si>
-    <t>SNP</t>
-  </si>
-  <si>
     <t>H2O</t>
   </si>
   <si>
@@ -97,30 +97,30 @@
     <t>DIGI</t>
   </si>
   <si>
+    <t>TGN</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
-    <t>TGN</t>
+    <t>ONE</t>
   </si>
   <si>
     <t>FP</t>
   </si>
   <si>
-    <t>ONE</t>
-  </si>
-  <si>
     <t>TEL</t>
   </si>
   <si>
     <t>TTS</t>
   </si>
   <si>
+    <t>TRP</t>
+  </si>
+  <si>
     <t>AQ</t>
   </si>
   <si>
-    <t>TRP</t>
-  </si>
-  <si>
     <t>SFG</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>COTE</t>
   </si>
   <si>
+    <t>OMV PETROM S.A.</t>
+  </si>
+  <si>
     <t>BANCA TRANSILVANIA S.A.</t>
   </si>
   <si>
-    <t>OMV PETROM S.A.</t>
-  </si>
-  <si>
     <t>S.P.E.E.H. HIDROELECTRICA S.A.</t>
   </si>
   <si>
@@ -157,30 +157,30 @@
     <t>Digi Communications N.V.</t>
   </si>
   <si>
+    <t>S.N.T.G.N. TRANSGAZ S.A.</t>
+  </si>
+  <si>
     <t>MedLife S.A.</t>
   </si>
   <si>
-    <t>S.N.T.G.N. TRANSGAZ S.A.</t>
+    <t>ONE UNITED PROPERTIES</t>
   </si>
   <si>
     <t>FONDUL PROPRIETATEA</t>
   </si>
   <si>
-    <t>ONE UNITED PROPERTIES</t>
-  </si>
-  <si>
     <t>C.N.T.E.E. TRANSELECTRICA</t>
   </si>
   <si>
     <t>TTS (TRANSPORT TRADE SERVICES)</t>
   </si>
   <si>
+    <t>TERAPLAST SA</t>
+  </si>
+  <si>
     <t>AQUILA PART PROD COM</t>
   </si>
   <si>
-    <t>TERAPLAST SA</t>
-  </si>
-  <si>
     <t>Sphera Franchise Group</t>
   </si>
   <si>
@@ -193,16 +193,16 @@
     <t>CONPET SA</t>
   </si>
   <si>
+    <t>62.311.667.058</t>
+  </si>
+  <si>
     <t>798.658.233</t>
   </si>
   <si>
-    <t>62.311.667.058</t>
-  </si>
-  <si>
     <t>449.802.567</t>
   </si>
   <si>
-    <t>385.422.400</t>
+    <t>3.854.224.000</t>
   </si>
   <si>
     <t>696.901.518</t>
@@ -217,30 +217,30 @@
     <t>100.000.000</t>
   </si>
   <si>
+    <t>188.381.504</t>
+  </si>
+  <si>
     <t>531.481.968</t>
   </si>
   <si>
-    <t>188.381.504</t>
+    <t>3.797.654.315</t>
   </si>
   <si>
     <t>5.668.806.128</t>
   </si>
   <si>
-    <t>3.797.654.315</t>
-  </si>
-  <si>
     <t>73.303.142</t>
   </si>
   <si>
     <t>60.000.000</t>
   </si>
   <si>
+    <t>2.179.000.358</t>
+  </si>
+  <si>
     <t>1.200.002.400</t>
   </si>
   <si>
-    <t>2.179.000.358</t>
-  </si>
-  <si>
     <t>38.799.340</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>8.657.528</t>
   </si>
   <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASNP</t>
+  </si>
+  <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATLV</t>
   </si>
   <si>
-    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASNP</t>
-  </si>
-  <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AH2O</t>
   </si>
   <si>
@@ -277,28 +277,28 @@
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ADIGI</t>
   </si>
   <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATGN</t>
+  </si>
+  <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AM</t>
   </si>
   <si>
-    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATGN</t>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AONE</t>
   </si>
   <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AFP</t>
   </si>
   <si>
-    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AONE</t>
-  </si>
-  <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATEL</t>
   </si>
   <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATTS</t>
   </si>
   <si>
+    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATRP</t>
+  </si>
+  <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3AAQ</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ATRP</t>
   </si>
   <si>
     <t>https://www.tradingview.com/chart/hHTcjp5L/?symbol=BVB%3ASFG</t>
@@ -358,7 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -851,49 +851,49 @@
         <v>59</v>
       </c>
       <c r="D4" s="2">
-        <v>32.15</v>
+        <v>0.772</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F4" s="2">
-        <v>0.622</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>21.29</v>
+        <v>19.58</v>
       </c>
       <c r="I4" s="2">
-        <v>32.25</v>
+        <v>0.772</v>
       </c>
       <c r="J4" s="2">
-        <v>0.1</v>
+        <v>-0.001</v>
       </c>
       <c r="K4" s="5">
-        <v>0.31</v>
+        <v>-0.13</v>
       </c>
       <c r="L4" s="2">
-        <v>32.15</v>
+        <v>0.777</v>
       </c>
       <c r="M4" s="2">
-        <v>32.3</v>
+        <v>0.78</v>
       </c>
       <c r="N4" s="2">
-        <v>32</v>
+        <v>0.769</v>
       </c>
       <c r="O4" s="2">
-        <v>32.15</v>
+        <v>0.775</v>
       </c>
       <c r="P4" s="2">
-        <v>33.45</v>
+        <v>0.78</v>
       </c>
       <c r="Q4" s="2">
-        <v>17.066</v>
+        <v>0.488</v>
       </c>
       <c r="R4" s="2">
-        <v>1.252</v>
+        <v>0.041</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>79</v>
@@ -910,49 +910,49 @@
         <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>0.773</v>
+        <v>32.3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0.552</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>19.26</v>
+        <v>19.32</v>
       </c>
       <c r="I5" s="2">
-        <v>0.776</v>
+        <v>32.3</v>
       </c>
       <c r="J5" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.39</v>
+        <v>0.15</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.47</v>
       </c>
       <c r="L5" s="2">
-        <v>0.777</v>
+        <v>32.15</v>
       </c>
       <c r="M5" s="2">
-        <v>0.78</v>
+        <v>32.3</v>
       </c>
       <c r="N5" s="2">
-        <v>0.774</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2">
-        <v>0.776</v>
+        <v>32.2</v>
       </c>
       <c r="P5" s="2">
-        <v>0.777</v>
+        <v>33.45</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.488</v>
+        <v>17.066</v>
       </c>
       <c r="R5" s="2">
-        <v>0.041</v>
+        <v>1.252</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>80</v>
@@ -969,7 +969,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="2">
-        <v>122.1</v>
+        <v>123.9</v>
       </c>
       <c r="E6" s="2">
         <v>0.2</v>
@@ -981,28 +981,28 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>14.64</v>
+        <v>15.12</v>
       </c>
       <c r="I6" s="2">
-        <v>123.5</v>
+        <v>123.9</v>
       </c>
       <c r="J6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1.15</v>
+        <v>1.8</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1.47</v>
       </c>
       <c r="L6" s="2">
         <v>123.2</v>
       </c>
       <c r="M6" s="2">
-        <v>123.6</v>
+        <v>124</v>
       </c>
       <c r="N6" s="2">
         <v>123.1</v>
       </c>
       <c r="O6" s="2">
-        <v>123.4</v>
+        <v>123.6</v>
       </c>
       <c r="P6" s="2">
         <v>137.3</v>
@@ -1028,7 +1028,7 @@
         <v>62</v>
       </c>
       <c r="D7" s="2">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="E7" s="2">
         <v>0.3</v>
@@ -1037,19 +1037,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>9.09</v>
+        <v>9.18</v>
       </c>
       <c r="I7" s="2">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="J7" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="K7" s="7">
-        <v>-0.34</v>
+        <v>-0.05</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-0.85</v>
       </c>
       <c r="L7" s="2">
         <v>5.9</v>
@@ -1061,7 +1061,7 @@
         <v>5.81</v>
       </c>
       <c r="O7" s="2">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="P7" s="2">
         <v>6.38</v>
@@ -1087,7 +1087,7 @@
         <v>63</v>
       </c>
       <c r="D8" s="2">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="E8" s="2">
         <v>0.4</v>
@@ -1099,28 +1099,28 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>7.54</v>
+        <v>7.87</v>
       </c>
       <c r="I8" s="2">
-        <v>20.35</v>
+        <v>20.8</v>
       </c>
       <c r="J8" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2.46</v>
       </c>
       <c r="L8" s="2">
         <v>20.3</v>
       </c>
       <c r="M8" s="2">
-        <v>20.35</v>
+        <v>20.8</v>
       </c>
       <c r="N8" s="2">
         <v>20</v>
       </c>
       <c r="O8" s="2">
-        <v>20.25</v>
+        <v>20.4</v>
       </c>
       <c r="P8" s="2">
         <v>22</v>
@@ -1146,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="2">
-        <v>45.95</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>0.2</v>
@@ -1158,16 +1158,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>3.69</v>
+        <v>3.76</v>
       </c>
       <c r="I9" s="2">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="K9" s="7">
-        <v>-0.11</v>
+        <v>0.11</v>
       </c>
       <c r="L9" s="2">
         <v>46</v>
@@ -1176,7 +1176,7 @@
         <v>46</v>
       </c>
       <c r="N9" s="2">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="O9" s="2">
         <v>45.95</v>
@@ -1205,7 +1205,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="2">
-        <v>15.36</v>
+        <v>15.18</v>
       </c>
       <c r="E10" s="2">
         <v>0.5</v>
@@ -1217,16 +1217,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="I10" s="2">
-        <v>15.14</v>
+        <v>15.18</v>
       </c>
       <c r="J10" s="2">
-        <v>-0.22</v>
-      </c>
-      <c r="K10" s="7">
-        <v>-1.43</v>
+        <v>-0.18</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-1.17</v>
       </c>
       <c r="L10" s="2">
         <v>15.36</v>
@@ -1238,7 +1238,7 @@
         <v>15.06</v>
       </c>
       <c r="O10" s="2">
-        <v>15.28</v>
+        <v>15.2</v>
       </c>
       <c r="P10" s="2">
         <v>15.36</v>
@@ -1264,7 +1264,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2">
         <v>0.4</v>
@@ -1276,16 +1276,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="I11" s="2">
-        <v>65.2</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="K11" s="7">
-        <v>-1.21</v>
+        <v>-1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-1.52</v>
       </c>
       <c r="L11" s="2">
         <v>65.8</v>
@@ -1294,7 +1294,7 @@
         <v>65.8</v>
       </c>
       <c r="N11" s="2">
-        <v>65</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="O11" s="2">
         <v>65.2</v>
@@ -1323,10 +1323,10 @@
         <v>67</v>
       </c>
       <c r="D12" s="2">
-        <v>6.25</v>
+        <v>24.2</v>
       </c>
       <c r="E12" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1335,37 +1335,37 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="I12" s="2">
-        <v>6.12</v>
+        <v>24.2</v>
       </c>
       <c r="J12" s="2">
-        <v>-0.13</v>
-      </c>
-      <c r="K12" s="7">
-        <v>-2.08</v>
+        <v>-0.1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-0.41</v>
       </c>
       <c r="L12" s="2">
-        <v>6.15</v>
+        <v>24.3</v>
       </c>
       <c r="M12" s="2">
-        <v>6.15</v>
+        <v>24.3</v>
       </c>
       <c r="N12" s="2">
-        <v>6</v>
+        <v>23.8</v>
       </c>
       <c r="O12" s="2">
-        <v>6.05</v>
+        <v>24.05</v>
       </c>
       <c r="P12" s="2">
-        <v>6.25</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" s="2">
-        <v>3.825</v>
+        <v>16</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>87</v>
@@ -1382,10 +1382,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="2">
-        <v>24.3</v>
+        <v>6.1</v>
       </c>
       <c r="E13" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1394,37 +1394,37 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="I13" s="2">
-        <v>24.05</v>
+        <v>6.1</v>
       </c>
       <c r="J13" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-1.03</v>
+        <v>-0.15</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-2.4</v>
       </c>
       <c r="L13" s="2">
-        <v>24.3</v>
+        <v>6.15</v>
       </c>
       <c r="M13" s="2">
-        <v>24.3</v>
+        <v>6.15</v>
       </c>
       <c r="N13" s="2">
-        <v>23.8</v>
+        <v>6</v>
       </c>
       <c r="O13" s="2">
-        <v>24.05</v>
+        <v>6.07</v>
       </c>
       <c r="P13" s="2">
-        <v>24.4</v>
+        <v>6.25</v>
       </c>
       <c r="Q13" s="2">
-        <v>16</v>
+        <v>3.825</v>
       </c>
       <c r="R13" s="2">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>88</v>
@@ -1441,10 +1441,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="2">
-        <v>0.413</v>
+        <v>0.89</v>
       </c>
       <c r="E14" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1453,37 +1453,37 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1.87</v>
+        <v>2.29</v>
       </c>
       <c r="I14" s="2">
-        <v>0.41</v>
+        <v>0.89</v>
       </c>
       <c r="J14" s="2">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="K14" s="7">
-        <v>-0.77</v>
+        <v>0.11</v>
       </c>
       <c r="L14" s="2">
-        <v>0.413</v>
+        <v>0.888</v>
       </c>
       <c r="M14" s="2">
-        <v>0.419</v>
+        <v>0.89</v>
       </c>
       <c r="N14" s="2">
-        <v>0.405</v>
+        <v>0.878</v>
       </c>
       <c r="O14" s="2">
-        <v>0.41</v>
+        <v>0.882</v>
       </c>
       <c r="P14" s="2">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.327</v>
+        <v>0.848</v>
       </c>
       <c r="R14" s="2">
-        <v>1.782</v>
+        <v>0.02</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>89</v>
@@ -1500,10 +1500,10 @@
         <v>70</v>
       </c>
       <c r="D15" s="2">
-        <v>0.889</v>
+        <v>0.409</v>
       </c>
       <c r="E15" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1512,37 +1512,37 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="I15" s="2">
-        <v>0.88</v>
+        <v>0.409</v>
       </c>
       <c r="J15" s="2">
-        <v>-0.008999999999999999</v>
-      </c>
-      <c r="K15" s="7">
-        <v>-1.01</v>
+        <v>-0.004</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-1.02</v>
       </c>
       <c r="L15" s="2">
-        <v>0.888</v>
+        <v>0.413</v>
       </c>
       <c r="M15" s="2">
-        <v>0.889</v>
+        <v>0.419</v>
       </c>
       <c r="N15" s="2">
-        <v>0.878</v>
+        <v>0.405</v>
       </c>
       <c r="O15" s="2">
-        <v>0.885</v>
+        <v>0.41</v>
       </c>
       <c r="P15" s="2">
-        <v>1.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.848</v>
+        <v>0.327</v>
       </c>
       <c r="R15" s="2">
-        <v>0.02</v>
+        <v>1.782</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>90</v>
@@ -1559,7 +1559,7 @@
         <v>71</v>
       </c>
       <c r="D16" s="2">
-        <v>42</v>
+        <v>41.95</v>
       </c>
       <c r="E16" s="2">
         <v>0.4</v>
@@ -1571,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="I16" s="2">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="J16" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>-0.24</v>
+        <v>-0.05</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-0.12</v>
       </c>
       <c r="L16" s="2">
         <v>42</v>
@@ -1589,10 +1589,10 @@
         <v>42</v>
       </c>
       <c r="N16" s="2">
-        <v>41.65</v>
+        <v>41.5</v>
       </c>
       <c r="O16" s="2">
-        <v>41.95</v>
+        <v>41.75</v>
       </c>
       <c r="P16" s="2">
         <v>42</v>
@@ -1618,7 +1618,7 @@
         <v>72</v>
       </c>
       <c r="D17" s="2">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="E17" s="2">
         <v>0.7</v>
@@ -1630,16 +1630,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I17" s="2">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="J17" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="K17" s="7">
-        <v>-1.15</v>
+        <v>-0.2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-0.77</v>
       </c>
       <c r="L17" s="2">
         <v>25.95</v>
@@ -1651,7 +1651,7 @@
         <v>25.55</v>
       </c>
       <c r="O17" s="2">
-        <v>25.7</v>
+        <v>25.65</v>
       </c>
       <c r="P17" s="2">
         <v>30.1</v>
@@ -1677,10 +1677,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="2">
-        <v>1.225</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E18" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1689,37 +1689,37 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>1.22</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="J18" s="2">
-        <v>-0.005</v>
+        <v>0.006</v>
       </c>
       <c r="K18" s="7">
-        <v>-0.41</v>
+        <v>1.07</v>
       </c>
       <c r="L18" s="2">
-        <v>1.225</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M18" s="2">
-        <v>1.225</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="N18" s="2">
-        <v>1.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O18" s="2">
-        <v>1.215</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="P18" s="2">
-        <v>1.26</v>
+        <v>0.62</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.668</v>
+        <v>0.45</v>
       </c>
       <c r="R18" s="2">
-        <v>0.07099999999999999</v>
+        <v>0.145</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>93</v>
@@ -1736,10 +1736,10 @@
         <v>74</v>
       </c>
       <c r="D19" s="2">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="E19" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1748,37 +1748,37 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I19" s="2">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>-0.41</v>
       </c>
       <c r="L19" s="2">
-        <v>0.5600000000000001</v>
+        <v>1.225</v>
       </c>
       <c r="M19" s="2">
-        <v>0.5639999999999999</v>
+        <v>1.225</v>
       </c>
       <c r="N19" s="2">
-        <v>0.5600000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="O19" s="2">
-        <v>0.5620000000000001</v>
+        <v>1.215</v>
       </c>
       <c r="P19" s="2">
-        <v>0.62</v>
+        <v>1.26</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.45</v>
+        <v>0.668</v>
       </c>
       <c r="R19" s="2">
-        <v>0.145</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>94</v>
@@ -1807,16 +1807,16 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I20" s="2">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0.26</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
       </c>
       <c r="L20" s="2">
         <v>38</v>
@@ -1854,7 +1854,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="2">
-        <v>64.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I21" s="2">
         <v>64.59999999999999</v>
@@ -1874,7 +1874,7 @@
       <c r="J21" s="2">
         <v>0.2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="7">
         <v>0.31</v>
       </c>
       <c r="L21" s="2">
@@ -1884,10 +1884,10 @@
         <v>64.7</v>
       </c>
       <c r="N21" s="2">
-        <v>64.3</v>
+        <v>64</v>
       </c>
       <c r="O21" s="2">
-        <v>64.59999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="P21" s="2">
         <v>73</v>
@@ -1913,7 +1913,7 @@
         <v>77</v>
       </c>
       <c r="D22" s="2">
-        <v>15.62</v>
+        <v>15.7</v>
       </c>
       <c r="E22" s="2">
         <v>0.8</v>
@@ -1925,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="I22" s="2">
-        <v>15.72</v>
+        <v>15.7</v>
       </c>
       <c r="J22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0.64</v>
+        <v>0.08</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.51</v>
       </c>
       <c r="L22" s="2">
         <v>15.62</v>
@@ -1946,7 +1946,7 @@
         <v>15.62</v>
       </c>
       <c r="O22" s="2">
-        <v>15.66</v>
+        <v>15.7</v>
       </c>
       <c r="P22" s="2">
         <v>15.76</v>
@@ -1972,7 +1972,7 @@
         <v>78</v>
       </c>
       <c r="D23" s="2">
-        <v>85.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E23" s="2">
         <v>0.4</v>
@@ -1984,22 +1984,22 @@
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I23" s="2">
-        <v>86</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J23" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0.47</v>
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.93</v>
       </c>
       <c r="L23" s="2">
         <v>86</v>
       </c>
       <c r="M23" s="2">
-        <v>86</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N23" s="2">
         <v>85.8</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25">
-        <v>18245.54</v>
+        <v>18271.27</v>
       </c>
     </row>
   </sheetData>
